--- a/Travis_County/Documentation/Travis_County_2014_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2014_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QESL' 'QNOHLTH' 'QSERV' 'QFHH'
+          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT' 'QSERV' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['MDGRENT' 'QPOVTY' 'QRENTER' 'QNOAUTO' 'QFAM']</t>
+          <t>['QRENTER' 'QNOAUTO' 'MDGRENT' 'QPOVTY' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
+          <t>['QRENTER' 'MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -584,45 +584,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8390350466169579</v>
+        <v>0.7871772098039178</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3911401980048781</v>
+        <v>0.2433220639087468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0205568598984511</v>
+        <v>0.1589091487875396</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1049798252221909</v>
+        <v>-0.03444785083464157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06282085023296329</v>
+        <v>-0.3068294920761567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6858736623123605</v>
+        <v>0.8390350623022573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1686737906258556</v>
+        <v>-0.3911402161609036</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1678446197211113</v>
+        <v>0.02055685868966702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06581878962117829</v>
+        <v>-0.1049798339267361</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3801092963490699</v>
+        <v>0.06282085525180199</v>
       </c>
     </row>
     <row r="4">
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8535540420472564</v>
+        <v>0.8535540438802229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29425998393687</v>
+        <v>0.2942599879497161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2278342540441235</v>
+        <v>0.2278342526672756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03093405263739964</v>
+        <v>0.03093405601878991</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1792954097518116</v>
+        <v>-0.1792954124128101</v>
       </c>
     </row>
     <row r="5">
@@ -654,63 +654,63 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8256792359323584</v>
+        <v>0.8256792369796715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2303082091690923</v>
+        <v>0.2303082123068747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3322223335916472</v>
+        <v>0.3322223342772303</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08286797966852771</v>
+        <v>-0.08286797747645538</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1013539793320272</v>
+        <v>-0.1013539813315074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7871772179344552</v>
+        <v>0.5868900543632414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2433220633781428</v>
+        <v>0.3769984930250166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1589091441108331</v>
+        <v>0.4345518419631864</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03444785090044241</v>
+        <v>-0.1122507554278625</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3068294937074654</v>
+        <v>-0.1988058287376842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5868900548818432</v>
+        <v>0.68587365849085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3769984887692632</v>
+        <v>0.1686737917718456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.434551839954276</v>
+        <v>0.1678446213279086</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.112250757594484</v>
+        <v>0.06581878906062469</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1988058258625277</v>
+        <v>-0.3801092948351619</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5235844256492278</v>
+        <v>0.5235844251540771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3723549660853798</v>
+        <v>0.3723549691343924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3418577953460913</v>
+        <v>0.3418577942284051</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1627309479443841</v>
+        <v>-0.1627309478414663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08706326980551134</v>
+        <v>0.08706326926693679</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.581116124454351</v>
+        <v>0.5811161245363714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2311338941084627</v>
+        <v>0.2311338957641451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2397958578390642</v>
+        <v>0.2397958580839634</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06720382193728273</v>
+        <v>-0.06720382188267912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3153982274820837</v>
+        <v>0.3153982278178231</v>
       </c>
     </row>
     <row r="10">
@@ -764,151 +764,151 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4617240824431151</v>
+        <v>0.461724080630382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2826832709259624</v>
+        <v>0.2826832750678213</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7178886889236629</v>
+        <v>0.7178886857367502</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2445429716281969</v>
+        <v>-0.244542972754528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03072562040296264</v>
+        <v>0.03072562029288074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3403125199820065</v>
+        <v>0.1482951784784576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1154671300459778</v>
+        <v>0.3316849312777776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8271739457714177</v>
+        <v>0.8441686218795945</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06457556961439798</v>
+        <v>-0.1720039476486327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02123961801439458</v>
+        <v>0.009111127026357892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1482951727997769</v>
+        <v>0.3403125125157643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3316849236088056</v>
+        <v>0.115467124856535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8441686458774961</v>
+        <v>0.8271739704712668</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1720039431878091</v>
+        <v>-0.06457556667846076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009111124117658706</v>
+        <v>0.02123961608751589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MDGRENT</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1975754439370546</v>
+        <v>-0.05014761103106876</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5351776813338859</v>
+        <v>0.7318178122103219</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3165122535683248</v>
+        <v>0.2033261079862347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02182531702983473</v>
+        <v>-0.4630674584802582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1164025805187779</v>
+        <v>-0.0962520629008541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4087840698026102</v>
+        <v>0.1441323046233658</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5110704231414387</v>
+        <v>0.7131384671058361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1880018437024071</v>
+        <v>0.06639925160187438</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3313326761399075</v>
+        <v>-0.04474492392929873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02863860400216451</v>
+        <v>0.008266725699617186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>MDGRENT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.050147615577528</v>
+        <v>-0.1975754441939956</v>
       </c>
       <c r="C15" t="n">
-        <v>0.731817820736975</v>
+        <v>-0.5351776815436257</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2033261101150021</v>
+        <v>-0.3165122515519421</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4630674600246596</v>
+        <v>0.02182531858476578</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.09625206517410419</v>
+        <v>0.1164025797497424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1441323024113927</v>
+        <v>0.4087840701207305</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7131384737249438</v>
+        <v>0.5110704235735413</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06639925293043641</v>
+        <v>0.188001841775175</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.04474492026929682</v>
+        <v>-0.331332677274938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008266724839913798</v>
+        <v>0.02863860414152995</v>
       </c>
     </row>
     <row r="17">
@@ -918,63 +918,63 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.213125948800808</v>
+        <v>0.2131259484306437</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5156558168276458</v>
+        <v>0.5156558163081137</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2584929389703257</v>
+        <v>0.2584929378931253</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.166746580552244</v>
+        <v>-0.1667465810213437</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1380807253547918</v>
+        <v>0.1380807243294067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004237817649510733</v>
+        <v>-0.319937003696785</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1129305021440519</v>
+        <v>-0.3055027590841742</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1037482653472825</v>
+        <v>-0.2684234130195316</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6808559559914714</v>
+        <v>0.7643515789274181</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5744249462221844</v>
+        <v>-0.05237667871264056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3199370052371313</v>
+        <v>0.004237817746099679</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3055027562515515</v>
+        <v>-0.1129305027772302</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2684234137937655</v>
+        <v>-0.1037482644569682</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7643515815833964</v>
+        <v>0.6808559562433713</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.05237667993180489</v>
+        <v>0.574424945692212</v>
       </c>
     </row>
     <row r="20">
@@ -984,63 +984,63 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0420684549323575</v>
+        <v>0.04206845599519946</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09549120442424849</v>
+        <v>-0.09549120571158048</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05344152191271685</v>
+        <v>-0.05344152164105292</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7693355967140335</v>
+        <v>0.7693355974000141</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1230011885010153</v>
+        <v>0.1230011882317699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1958049813928863</v>
+        <v>-0.06730619269636147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07315797459715492</v>
+        <v>-0.04893827287545741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09900758813395812</v>
+        <v>-0.04702348317271241</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01338488517509259</v>
+        <v>0.2326601394413246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7610846999518913</v>
+        <v>0.7981094872668296</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.06730619321254754</v>
+        <v>-0.1958049816171656</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.04893827375507665</v>
+        <v>0.07315797512650551</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04702348323077181</v>
+        <v>0.09900758785373526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2326601383359248</v>
+        <v>-0.01338488462249882</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7981094802181413</v>
+        <v>0.7610846962392164</v>
       </c>
     </row>
   </sheetData>
@@ -1156,55 +1156,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.493171814113608</v>
+        <v>4.493171816117259</v>
       </c>
       <c r="C2" t="n">
-        <v>2.816071367100334</v>
+        <v>2.816071370985865</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6666856795815</v>
+        <v>2.666685690429789</v>
       </c>
       <c r="E2" t="n">
-        <v>2.347329131365865</v>
+        <v>2.347329138861848</v>
       </c>
       <c r="F2" t="n">
-        <v>2.064829757643869</v>
+        <v>2.064829759633438</v>
       </c>
       <c r="G2" t="n">
-        <v>1.920379468918041</v>
+        <v>1.920379474901332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9067766619036324</v>
+        <v>0.9067766966965328</v>
       </c>
       <c r="I2" t="n">
-        <v>4.879994187690127</v>
+        <v>4.879994189092971</v>
       </c>
       <c r="J2" t="n">
-        <v>3.146150473784305</v>
+        <v>3.146150475610229</v>
       </c>
       <c r="K2" t="n">
-        <v>2.844503599505886</v>
+        <v>2.844503605878363</v>
       </c>
       <c r="L2" t="n">
-        <v>2.231241356852442</v>
+        <v>2.231241355403021</v>
       </c>
       <c r="M2" t="n">
-        <v>2.031125276432326</v>
+        <v>2.031125266578</v>
       </c>
       <c r="N2" t="n">
-        <v>4.933490062600055</v>
+        <v>4.933490069142255</v>
       </c>
       <c r="O2" t="n">
-        <v>2.898317975954027</v>
+        <v>2.89831798740508</v>
       </c>
       <c r="P2" t="n">
-        <v>2.837310565025729</v>
+        <v>2.837310559408593</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.209999140049801</v>
+        <v>2.209999140535536</v>
       </c>
       <c r="R2" t="n">
-        <v>2.039885463264065</v>
+        <v>2.039885468247281</v>
       </c>
     </row>
     <row r="3">
@@ -1214,55 +1214,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1664137708930966</v>
+        <v>0.1664137709673059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1042989395222346</v>
+        <v>0.1042989396661431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09876613628079628</v>
+        <v>0.09876613668258478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08693811597651352</v>
+        <v>0.08693811625414251</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0764751762090322</v>
+        <v>0.07647517628271991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07112516551548301</v>
+        <v>0.07112516573708637</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03358432081124564</v>
+        <v>0.03358432209987158</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2218179176222785</v>
+        <v>0.2218179176860441</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1430068397174684</v>
+        <v>0.1430068398004649</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1292956181593584</v>
+        <v>0.1292956184490165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.101420061675111</v>
+        <v>0.1014200616092282</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09232387620146937</v>
+        <v>0.09232387575354548</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2349280982190502</v>
+        <v>0.2349280985305836</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1380151417120966</v>
+        <v>0.1380151422573848</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1351100269059871</v>
+        <v>0.1351100266385044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1052380542880858</v>
+        <v>0.105238054311216</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09713740301257454</v>
+        <v>0.09713740324987052</v>
       </c>
     </row>
     <row r="4">
@@ -1272,55 +1272,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1664137708930966</v>
+        <v>0.1664137709673059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2707127104153312</v>
+        <v>0.270712710633449</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3694788466961275</v>
+        <v>0.3694788473160338</v>
       </c>
       <c r="E4" t="n">
-        <v>0.456416962672641</v>
+        <v>0.4564169635701763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5328921388816732</v>
+        <v>0.5328921398528962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6040173043971562</v>
+        <v>0.6040173055899826</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6376016252084018</v>
+        <v>0.6376016276898542</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2218179176222785</v>
+        <v>0.2218179176860441</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3648247573397469</v>
+        <v>0.3648247574865091</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4941203754991054</v>
+        <v>0.4941203759355255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5955404371742163</v>
+        <v>0.5955404375447537</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6878643133756857</v>
+        <v>0.6878643132982992</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2349280982190502</v>
+        <v>0.2349280985305836</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3729432399311468</v>
+        <v>0.3729432407879684</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5080532668371338</v>
+        <v>0.5080532674264728</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6132913211252196</v>
+        <v>0.6132913217376889</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7104287241377941</v>
+        <v>0.7104287249875594</v>
       </c>
     </row>
     <row r="5">
@@ -1330,55 +1330,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2609996027514889</v>
+        <v>0.2609996018521048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1635801029963564</v>
+        <v>0.1635801025854294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1549025792531729</v>
+        <v>0.1549025792804707</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1363517791349694</v>
+        <v>0.1363517790397352</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1199419405244397</v>
+        <v>0.1199419401732133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1115511044882227</v>
+        <v>0.1115511044016398</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05267289085135019</v>
+        <v>0.05267289266740684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3224733618374673</v>
+        <v>0.3224733619664472</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2078997804314983</v>
+        <v>0.2078997805755459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.187966748158284</v>
+        <v>0.1879667486005284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1474419586871621</v>
+        <v>0.147441958607971</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1342181508855883</v>
+        <v>0.1342181502495076</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3306849656229325</v>
+        <v>0.3306849656659048</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1942702160299015</v>
+        <v>0.1942702165650771</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1901809742700962</v>
+        <v>0.1901809736661062</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1481331634159458</v>
+        <v>0.1481331632713175</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1367306806611241</v>
+        <v>0.1367306808315944</v>
       </c>
     </row>
   </sheetData>
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.933490062600055</v>
+        <v>4.933490069142255</v>
       </c>
       <c r="C2" t="n">
-        <v>2.898317975954027</v>
+        <v>2.89831798740508</v>
       </c>
       <c r="D2" t="n">
-        <v>2.837310565025729</v>
+        <v>2.837310559408593</v>
       </c>
       <c r="E2" t="n">
-        <v>2.209999140049801</v>
+        <v>2.209999140535536</v>
       </c>
       <c r="F2" t="n">
-        <v>2.039885463264065</v>
+        <v>2.039885468247281</v>
       </c>
     </row>
     <row r="3">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2349280982190502</v>
+        <v>0.2349280985305836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1380151417120966</v>
+        <v>0.1380151422573848</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1351100269059871</v>
+        <v>0.1351100266385044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1052380542880858</v>
+        <v>0.105238054311216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09713740301257454</v>
+        <v>0.09713740324987052</v>
       </c>
     </row>
     <row r="4">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2349280982190502</v>
+        <v>0.2349280985305836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3729432399311468</v>
+        <v>0.3729432407879684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5080532668371338</v>
+        <v>0.5080532674264728</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6132913211252196</v>
+        <v>0.6132913217376889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7104287241377941</v>
+        <v>0.7104287249875594</v>
       </c>
     </row>
     <row r="5">
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3306849656229325</v>
+        <v>0.3306849656659048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1942702160299015</v>
+        <v>0.1942702165650771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1901809742700962</v>
+        <v>0.1901809736661062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1481331634159458</v>
+        <v>0.1481331632713175</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1367306806611241</v>
+        <v>0.1367306808315944</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QESL', 'QNOHLTH', 'QSERV', 'QFHH', 'PERCAP', 'MDGRENT', 'QPOVTY', 'QRENTER', 'QNOAUTO', 'QFAM', 'MDHSEVAL', 'QRICH', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'QSERV', 'QFHH', 'PERCAP', 'QRENTER', 'QNOAUTO', 'MDGRENT', 'QPOVTY', 'QFAM', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2014_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2014_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT' 'QSERV' 'QFHH'
+          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'PPUNIT' 'QFHH' 'QSERV'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QNOAUTO' 'MDGRENT' 'QPOVTY' 'QFAM']</t>
+          <t>['QNOAUTO' 'QRENTER' 'QPOVTY' 'MDGRENT' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
         </is>
       </c>
     </row>
@@ -584,199 +584,199 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7871772098039178</v>
+        <v>0.8535540396363124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2433220639087468</v>
+        <v>0.2942599856184421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1589091487875396</v>
+        <v>0.2278342558209664</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03444785083464157</v>
+        <v>0.03093405343339222</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3068294920761567</v>
+        <v>-0.1792954112936918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8390350623022573</v>
+        <v>0.5868900536133227</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3911402161609036</v>
+        <v>0.3769984907265412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02055685868966702</v>
+        <v>0.4345518419777495</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1049798339267361</v>
+        <v>-0.1122507566776803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06282085525180199</v>
+        <v>-0.1988058272979689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8535540438802229</v>
+        <v>0.8256792390593154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2942599879497161</v>
+        <v>0.2303082110088179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2278342526672756</v>
+        <v>0.3322223346770784</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03093405601878991</v>
+        <v>-0.08286797795694344</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1792954124128101</v>
+        <v>-0.1013539804730712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8256792369796715</v>
+        <v>0.6858736560952814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2303082123068747</v>
+        <v>0.1686737903490373</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3322223342772303</v>
+        <v>0.167844622751919</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08286797747645538</v>
+        <v>0.06581878601199941</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1013539813315074</v>
+        <v>-0.3801092915507738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5868900543632414</v>
+        <v>0.7871772160797963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3769984930250166</v>
+        <v>0.2433220650423305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4345518419631864</v>
+        <v>0.1589091458467276</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1122507554278625</v>
+        <v>-0.03444784971801571</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1988058287376842</v>
+        <v>-0.3068294949191633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.68587365849085</v>
+        <v>0.8390350547914803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1686737917718456</v>
+        <v>-0.391140206353182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1678446213279086</v>
+        <v>0.02055685896484429</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06581878906062469</v>
+        <v>-0.1049798287716405</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3801092948351619</v>
+        <v>0.06282085312331426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5235844251540771</v>
+        <v>0.5811161248115461</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3723549691343924</v>
+        <v>0.2311338968450682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3418577942284051</v>
+        <v>0.2397958569732908</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1627309478414663</v>
+        <v>-0.06720382177348448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08706326926693679</v>
+        <v>0.3153982286836307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5811161245363714</v>
+        <v>0.523584424273444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2311338957641451</v>
+        <v>0.3723549677504492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2397958580839634</v>
+        <v>0.341857795414397</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06720382188267912</v>
+        <v>-0.1627309475227971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3153982278178231</v>
+        <v>0.08706326868870891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.461724080630382</v>
+        <v>0.3403125167540024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2826832750678213</v>
+        <v>0.1154671291163669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7178886857367502</v>
+        <v>0.8271739522996695</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.244542972754528</v>
+        <v>-0.06457556896934376</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03072562029288074</v>
+        <v>0.0212396178260786</v>
       </c>
     </row>
     <row r="11">
@@ -786,129 +786,129 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1482951784784576</v>
+        <v>0.1482951761124411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3316849312777776</v>
+        <v>0.3316849264496423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8441686218795945</v>
+        <v>0.8441686316740928</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1720039476486327</v>
+        <v>-0.172003945925523</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009111127026357892</v>
+        <v>0.009111126166282563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3403125125157643</v>
+        <v>0.4617240805954553</v>
       </c>
       <c r="C12" t="n">
-        <v>0.115467124856535</v>
+        <v>0.2826832727314532</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8271739704712668</v>
+        <v>0.7178886867594021</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06457556667846076</v>
+        <v>-0.2445429717107151</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02123961608751589</v>
+        <v>0.03072562016710757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05014761103106876</v>
+        <v>0.1441323023865664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7318178122103219</v>
+        <v>0.7131384724660992</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2033261079862347</v>
+        <v>0.0663992524684954</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4630674584802582</v>
+        <v>-0.04474492229608065</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0962520629008541</v>
+        <v>0.008266724400623692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1441323046233658</v>
+        <v>-0.05014761210471602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7131384671058361</v>
+        <v>0.7318178095675232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06639925160187438</v>
+        <v>0.2033261120169437</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04474492392929873</v>
+        <v>-0.4630674579968642</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008266725699617186</v>
+        <v>-0.09625206384774211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MDGRENT</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1975754441939956</v>
+        <v>0.4087840670224311</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5351776815436257</v>
+        <v>0.5110704193040947</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3165122515519421</v>
+        <v>0.1880018473463012</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02182531858476578</v>
+        <v>-0.3313326743206519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1164025797497424</v>
+        <v>0.02863860163428892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>MDGRENT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4087840701207305</v>
+        <v>-0.1975754443610037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5110704235735413</v>
+        <v>-0.5351776757840675</v>
       </c>
       <c r="D16" t="n">
-        <v>0.188001841775175</v>
+        <v>-0.3165122527174706</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.331332677274938</v>
+        <v>0.02182532167164043</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02863860414152995</v>
+        <v>0.1164025787587832</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2131259484306437</v>
+        <v>0.2131259481056149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5156558163081137</v>
+        <v>0.5156558200420803</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2584929378931253</v>
+        <v>0.2584929377653327</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1667465810213437</v>
+        <v>-0.1667465810888916</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1380807243294067</v>
+        <v>0.1380807259304861</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.319937003696785</v>
+        <v>-0.3199370037505139</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3055027590841742</v>
+        <v>-0.3055027576863492</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2684234130195316</v>
+        <v>-0.2684234142251927</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7643515789274181</v>
+        <v>0.7643515789363323</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05237667871264056</v>
+        <v>-0.05237667965410289</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004237817746099679</v>
+        <v>0.00423781768745145</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1129305027772302</v>
+        <v>-0.1129305019558629</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1037482644569682</v>
+        <v>-0.1037482646894403</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6808559562433713</v>
+        <v>0.6808559581077923</v>
       </c>
       <c r="F19" t="n">
-        <v>0.574424945692212</v>
+        <v>0.5744249450889799</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04206845599519946</v>
+        <v>0.04206845507028693</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09549120571158048</v>
+        <v>-0.09549120574683669</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05344152164105292</v>
+        <v>-0.05344152182813242</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7693355974000141</v>
+        <v>0.7693355939671489</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1230011882317699</v>
+        <v>0.1230011873548293</v>
       </c>
     </row>
     <row r="21">
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.06730619269636147</v>
+        <v>-0.06730619342611235</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04893827287545741</v>
+        <v>-0.0489382732520305</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04702348317271241</v>
+        <v>-0.04702348290529709</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2326601394413246</v>
+        <v>0.2326601398087968</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7981094872668296</v>
+        <v>0.7981094810272608</v>
       </c>
     </row>
     <row r="22">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1958049816171656</v>
+        <v>-0.195804981638047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07315797512650551</v>
+        <v>0.07315797498728298</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09900758785373526</v>
+        <v>0.09900758758179591</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01338488462249882</v>
+        <v>-0.01338488458950864</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7610846962392164</v>
+        <v>0.7610846979559998</v>
       </c>
     </row>
   </sheetData>
@@ -1177,34 +1177,34 @@
         <v>0.9067766966965328</v>
       </c>
       <c r="I2" t="n">
-        <v>4.879994189092971</v>
+        <v>4.8799941949957</v>
       </c>
       <c r="J2" t="n">
-        <v>3.146150475610229</v>
+        <v>3.146150461705898</v>
       </c>
       <c r="K2" t="n">
-        <v>2.844503605878363</v>
+        <v>2.844503603990053</v>
       </c>
       <c r="L2" t="n">
-        <v>2.231241355403021</v>
+        <v>2.231241362946347</v>
       </c>
       <c r="M2" t="n">
-        <v>2.031125266578</v>
+        <v>2.031125264963602</v>
       </c>
       <c r="N2" t="n">
-        <v>4.933490069142255</v>
+        <v>4.933490056910221</v>
       </c>
       <c r="O2" t="n">
-        <v>2.89831798740508</v>
+        <v>2.898317968113334</v>
       </c>
       <c r="P2" t="n">
-        <v>2.837310559408593</v>
+        <v>2.837310554056622</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.209999140535536</v>
+        <v>2.20999913329561</v>
       </c>
       <c r="R2" t="n">
-        <v>2.039885468247281</v>
+        <v>2.039885458647825</v>
       </c>
     </row>
     <row r="3">
@@ -1235,34 +1235,34 @@
         <v>0.03358432209987158</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2218179176860441</v>
+        <v>0.22181791795435</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1430068398004649</v>
+        <v>0.1430068391684499</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1292956184490165</v>
+        <v>0.1292956183631842</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014200616092282</v>
+        <v>0.1014200619521067</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09232387575354548</v>
+        <v>0.09232387568016374</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2349280985305836</v>
+        <v>0.2349280979481058</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1380151422573848</v>
+        <v>0.1380151413387302</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1351100266385044</v>
+        <v>0.1351100263836487</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.105238054311216</v>
+        <v>0.1052380539664576</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09713740324987052</v>
+        <v>0.09713740279275355</v>
       </c>
     </row>
     <row r="4">
@@ -1293,34 +1293,34 @@
         <v>0.6376016276898542</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2218179176860441</v>
+        <v>0.22181791795435</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3648247574865091</v>
+        <v>0.3648247571227999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4941203759355255</v>
+        <v>0.4941203754859841</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5955404375447537</v>
+        <v>0.5955404374380908</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6878643132982992</v>
+        <v>0.6878643131182546</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2349280985305836</v>
+        <v>0.2349280979481058</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3729432407879684</v>
+        <v>0.3729432392868359</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5080532674264728</v>
+        <v>0.5080532656704846</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6132913217376889</v>
+        <v>0.6132913196369423</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7104287249875594</v>
+        <v>0.7104287224296958</v>
       </c>
     </row>
     <row r="5">
@@ -1351,34 +1351,34 @@
         <v>0.05267289266740684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3224733619664472</v>
+        <v>0.3224733624409092</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2078997805755459</v>
+        <v>0.2078997797111547</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1879667486005284</v>
+        <v>0.1879667485249468</v>
       </c>
       <c r="L5" t="n">
-        <v>0.147441958607971</v>
+        <v>0.1474419591450312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1342181502495076</v>
+        <v>0.1342181501779579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3306849656659048</v>
+        <v>0.3306849660366235</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1942702165650771</v>
+        <v>0.1942702159714385</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1901809736661062</v>
+        <v>0.1901809739921082</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1481331632713175</v>
+        <v>0.1481331633193815</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1367306808315944</v>
+        <v>0.1367306806804483</v>
       </c>
     </row>
   </sheetData>
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.933490069142255</v>
+        <v>4.933490056910221</v>
       </c>
       <c r="C2" t="n">
-        <v>2.89831798740508</v>
+        <v>2.898317968113334</v>
       </c>
       <c r="D2" t="n">
-        <v>2.837310559408593</v>
+        <v>2.837310554056622</v>
       </c>
       <c r="E2" t="n">
-        <v>2.209999140535536</v>
+        <v>2.20999913329561</v>
       </c>
       <c r="F2" t="n">
-        <v>2.039885468247281</v>
+        <v>2.039885458647825</v>
       </c>
     </row>
     <row r="3">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2349280985305836</v>
+        <v>0.2349280979481058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1380151422573848</v>
+        <v>0.1380151413387302</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1351100266385044</v>
+        <v>0.1351100263836487</v>
       </c>
       <c r="E3" t="n">
-        <v>0.105238054311216</v>
+        <v>0.1052380539664576</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09713740324987052</v>
+        <v>0.09713740279275355</v>
       </c>
     </row>
     <row r="4">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2349280985305836</v>
+        <v>0.2349280979481058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3729432407879684</v>
+        <v>0.3729432392868359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5080532674264728</v>
+        <v>0.5080532656704846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6132913217376889</v>
+        <v>0.6132913196369423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7104287249875594</v>
+        <v>0.7104287224296958</v>
       </c>
     </row>
     <row r="5">
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3306849656659048</v>
+        <v>0.3306849660366235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1942702165650771</v>
+        <v>0.1942702159714385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1901809736661062</v>
+        <v>0.1901809739921082</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1481331632713175</v>
+        <v>0.1481331633193815</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1367306808315944</v>
+        <v>0.1367306806804483</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'QSERV', 'QFHH', 'PERCAP', 'QRENTER', 'QNOAUTO', 'MDGRENT', 'QPOVTY', 'QFAM', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'PPUNIT', 'QFHH', 'QSERV', 'PERCAP', 'QNOAUTO', 'QRENTER', 'QPOVTY', 'MDGRENT', 'QFAM', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2014_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2014_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'PPUNIT' 'QFHH' 'QSERV'
+          <t>['QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'QSERV' 'QFHH'
  'PERCAP']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['QNOAUTO' 'QRENTER' 'QPOVTY' 'MDGRENT' 'QFAM']</t>
+          <t>['QNOAUTO' 'QPOVTY' 'MDGRENT' 'QRENTER' 'QFAM']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MDHSEVAL' 'QRICH' 'PERCAP']</t>
+          <t>['QRICH' 'PERCAP' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QRENTER' 'MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QRENTER' 'QAGEDEP' 'QSSBEN' 'MEDAGE']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -584,45 +584,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8535540396363124</v>
+        <v>0.6858736575524721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2942599856184421</v>
+        <v>0.1686737909858408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2278342558209664</v>
+        <v>0.1678446216009458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03093405343339222</v>
+        <v>0.06581878842978414</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1792954112936918</v>
+        <v>-0.3801092957356946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5868900536133227</v>
+        <v>0.7871772107263549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3769984907265412</v>
+        <v>0.2433220629746484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4345518419777495</v>
+        <v>0.1589091485125755</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1122507566776803</v>
+        <v>-0.03444785117753878</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1988058272979689</v>
+        <v>-0.306829493692647</v>
       </c>
     </row>
     <row r="4">
@@ -632,195 +632,195 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8256792390593154</v>
+        <v>0.8256792357545928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2303082110088179</v>
+        <v>0.2303082105529956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3322223346770784</v>
+        <v>0.3322223344528948</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.08286797795694344</v>
+        <v>-0.08286797780992657</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1013539804730712</v>
+        <v>-0.1013539821395284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6858736560952814</v>
+        <v>0.8535540399647311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1686737903490373</v>
+        <v>0.2942599856188969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.167844622751919</v>
+        <v>0.2278342548178292</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06581878601199941</v>
+        <v>0.03093405418756537</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3801092915507738</v>
+        <v>-0.1792954128540681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7871772160797963</v>
+        <v>0.8390350525801112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2433220650423305</v>
+        <v>-0.3911401996634874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1589091458467276</v>
+        <v>0.02055685611992847</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03444784971801571</v>
+        <v>-0.104979825283385</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3068294949191633</v>
+        <v>0.06282084972806128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8390350547914803</v>
+        <v>0.5868900526934003</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.391140206353182</v>
+        <v>0.3769984876564605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02055685896484429</v>
+        <v>0.4345518397036272</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1049798287716405</v>
+        <v>-0.112250758320281</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06282085312331426</v>
+        <v>-0.1988058259654437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QFHH</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5811161248115461</v>
+        <v>0.5235844267086339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2311338968450682</v>
+        <v>0.3723549677993631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2397958569732908</v>
+        <v>0.3418577957046304</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06720382177348448</v>
+        <v>-0.1627309474076945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3153982286836307</v>
+        <v>0.08706326963143393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>QFHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.523584424273444</v>
+        <v>0.5811161255868825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3723549677504492</v>
+        <v>0.2311338953133625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.341857795414397</v>
+        <v>0.2397958574662523</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1627309475227971</v>
+        <v>-0.06720382108618962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08706326868870891</v>
+        <v>0.3153982269937073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3403125167540024</v>
+        <v>0.1482951756887093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1154671291163669</v>
+        <v>0.3316849231928604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8271739522996695</v>
+        <v>0.8441686390780203</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06457556896934376</v>
+        <v>-0.1720039450954542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0212396178260786</v>
+        <v>0.009111125661337663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>PERCAP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1482951761124411</v>
+        <v>0.4617240831990917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3316849264496423</v>
+        <v>0.2826832742982029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8441686316740928</v>
+        <v>0.7178886796790139</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.172003945925523</v>
+        <v>-0.2445429701812348</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009111126166282563</v>
+        <v>0.03072561909958982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PERCAP</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4617240805954553</v>
+        <v>0.3403125200052169</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2826832727314532</v>
+        <v>0.1154671295287299</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7178886867594021</v>
+        <v>0.8271739462414933</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2445429717107151</v>
+        <v>-0.06457556998133435</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03072562016710757</v>
+        <v>0.02123961798656674</v>
       </c>
     </row>
     <row r="13">
@@ -830,85 +830,85 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1441323023865664</v>
+        <v>0.1441323019310419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7131384724660992</v>
+        <v>0.7131384755366393</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0663992524684954</v>
+        <v>0.06639925210386499</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04474492229608065</v>
+        <v>-0.04474492005653481</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008266724400623692</v>
+        <v>0.008266724356157294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QRENTER</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.05014761210471602</v>
+        <v>0.4087840692542938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7318178095675232</v>
+        <v>0.5110704235684644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2033261120169437</v>
+        <v>0.188001844083467</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4630674579968642</v>
+        <v>-0.3313326743756278</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09625206384774211</v>
+        <v>0.02863860231725125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>MDGRENT</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4087840670224311</v>
+        <v>-0.1975754434779801</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5110704193040947</v>
+        <v>-0.535177679099883</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1880018473463012</v>
+        <v>-0.3165122544058664</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3313326743206519</v>
+        <v>0.0218253183896386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02863860163428892</v>
+        <v>0.1164025804462911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MDGRENT</t>
+          <t>QRENTER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1975754443610037</v>
+        <v>-0.05014761453986846</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5351776757840675</v>
+        <v>0.7318178143195329</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3165122527174706</v>
+        <v>0.2033261131586872</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02182532167164043</v>
+        <v>-0.4630674592357272</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1164025787587832</v>
+        <v>-0.09625206428947632</v>
       </c>
     </row>
     <row r="17">
@@ -918,129 +918,129 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2131259481056149</v>
+        <v>0.2131259487493579</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5156558200420803</v>
+        <v>0.5156558124547915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2584929377653327</v>
+        <v>0.2584929403896893</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1667465810888916</v>
+        <v>-0.1667465807900852</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1380807259304861</v>
+        <v>0.1380807234771666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3199370037505139</v>
+        <v>0.004237817472272597</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3055027576863492</v>
+        <v>-0.1129305024413651</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2684234142251927</v>
+        <v>-0.1037482651232172</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7643515789363323</v>
+        <v>0.6808559555794382</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05237667965410289</v>
+        <v>0.5744249450780913</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>QSSBEN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00423781768745145</v>
+        <v>0.04206845476943216</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1129305019558629</v>
+        <v>-0.09549120345561292</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1037482646894403</v>
+        <v>-0.05344152197055597</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6808559581077923</v>
+        <v>0.7693356006567849</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5744249450889799</v>
+        <v>0.123001187274755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QSSBEN</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04206845507028693</v>
+        <v>-0.3199370047601924</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09549120574683669</v>
+        <v>-0.3055027584054265</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05344152182813242</v>
+        <v>-0.2684234148189786</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7693355939671489</v>
+        <v>0.7643515739670108</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1230011873548293</v>
+        <v>-0.05237667736199582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.06730619342611235</v>
+        <v>-0.1958049799799623</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0489382732520305</v>
+        <v>0.0731579741974871</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.04702348290529709</v>
+        <v>0.09900758791837097</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2326601398087968</v>
+        <v>-0.01338488484407241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7981094810272608</v>
+        <v>0.7610846981779612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.195804981638047</v>
+        <v>-0.06730619307533976</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07315797498728298</v>
+        <v>-0.0489382739587247</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09900758758179591</v>
+        <v>-0.04702348251678303</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01338488458950864</v>
+        <v>0.2326601383396722</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7610846979559998</v>
+        <v>0.7981094768299711</v>
       </c>
     </row>
   </sheetData>
@@ -1177,34 +1177,34 @@
         <v>0.9067766966965328</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8799941949957</v>
+        <v>4.879994163690873</v>
       </c>
       <c r="J2" t="n">
-        <v>3.146150461705898</v>
+        <v>3.146150459641948</v>
       </c>
       <c r="K2" t="n">
-        <v>2.844503603990053</v>
+        <v>2.844503589898979</v>
       </c>
       <c r="L2" t="n">
-        <v>2.231241362946347</v>
+        <v>2.231241345921043</v>
       </c>
       <c r="M2" t="n">
-        <v>2.031125264963602</v>
+        <v>2.031125257852269</v>
       </c>
       <c r="N2" t="n">
-        <v>4.933490056910221</v>
+        <v>4.933490050521812</v>
       </c>
       <c r="O2" t="n">
-        <v>2.898317968113334</v>
+        <v>2.898317969195848</v>
       </c>
       <c r="P2" t="n">
-        <v>2.837310554056622</v>
+        <v>2.837310546633725</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.20999913329561</v>
+        <v>2.209999131657667</v>
       </c>
       <c r="R2" t="n">
-        <v>2.039885458647825</v>
+        <v>2.039885453252239</v>
       </c>
     </row>
     <row r="3">
@@ -1235,34 +1235,34 @@
         <v>0.03358432209987158</v>
       </c>
       <c r="I3" t="n">
-        <v>0.22181791795435</v>
+        <v>0.2218179165314033</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1430068391684499</v>
+        <v>0.143006839074634</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1292956183631842</v>
+        <v>0.1292956177226809</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1014200619521067</v>
+        <v>0.1014200611782292</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09232387568016374</v>
+        <v>0.09232387535692131</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2349280979481058</v>
+        <v>0.2349280976438958</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1380151413387302</v>
+        <v>0.1380151413902785</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1351100263836487</v>
+        <v>0.1351100260301774</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1052380539664576</v>
+        <v>0.1052380538884603</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09713740279275355</v>
+        <v>0.0971374025358209</v>
       </c>
     </row>
     <row r="4">
@@ -1293,34 +1293,34 @@
         <v>0.6376016276898542</v>
       </c>
       <c r="I4" t="n">
-        <v>0.22181791795435</v>
+        <v>0.2218179165314033</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3648247571227999</v>
+        <v>0.3648247556060373</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4941203754859841</v>
+        <v>0.4941203733287182</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5955404374380908</v>
+        <v>0.5955404345069475</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6878643131182546</v>
+        <v>0.6878643098638688</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2349280979481058</v>
+        <v>0.2349280976438958</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3729432392868359</v>
+        <v>0.3729432390341743</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5080532656704846</v>
+        <v>0.5080532650643517</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6132913196369423</v>
+        <v>0.613291318952812</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7104287224296958</v>
+        <v>0.7104287214886329</v>
       </c>
     </row>
     <row r="5">
@@ -1351,34 +1351,34 @@
         <v>0.05267289266740684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3224733624409092</v>
+        <v>0.3224733618979331</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2078997797111547</v>
+        <v>0.2078997805583715</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1879667485249468</v>
+        <v>0.1879667484830969</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1474419591450312</v>
+        <v>0.1474419587175568</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1342181501779579</v>
+        <v>0.1342181503430416</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3306849660366235</v>
+        <v>0.3306849660464561</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1942702159714385</v>
+        <v>0.1942702163013363</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1901809739921082</v>
+        <v>0.1901809737464833</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1481331633193815</v>
+        <v>0.1481331634058156</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1367306806804483</v>
+        <v>0.1367306804999087</v>
       </c>
     </row>
   </sheetData>
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.933490056910221</v>
+        <v>4.933490050521812</v>
       </c>
       <c r="C2" t="n">
-        <v>2.898317968113334</v>
+        <v>2.898317969195848</v>
       </c>
       <c r="D2" t="n">
-        <v>2.837310554056622</v>
+        <v>2.837310546633725</v>
       </c>
       <c r="E2" t="n">
-        <v>2.20999913329561</v>
+        <v>2.209999131657667</v>
       </c>
       <c r="F2" t="n">
-        <v>2.039885458647825</v>
+        <v>2.039885453252239</v>
       </c>
     </row>
     <row r="3">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2349280979481058</v>
+        <v>0.2349280976438958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1380151413387302</v>
+        <v>0.1380151413902785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1351100263836487</v>
+        <v>0.1351100260301774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1052380539664576</v>
+        <v>0.1052380538884603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09713740279275355</v>
+        <v>0.0971374025358209</v>
       </c>
     </row>
     <row r="4">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2349280979481058</v>
+        <v>0.2349280976438958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3729432392868359</v>
+        <v>0.3729432390341743</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5080532656704846</v>
+        <v>0.5080532650643517</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6132913196369423</v>
+        <v>0.613291318952812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7104287224296958</v>
+        <v>0.7104287214886329</v>
       </c>
     </row>
     <row r="5">
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3306849660366235</v>
+        <v>0.3306849660464561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1942702159714385</v>
+        <v>0.1942702163013363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1901809739921082</v>
+        <v>0.1901809737464833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1481331633193815</v>
+        <v>0.1481331634058156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1367306806804483</v>
+        <v>0.1367306804999087</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'PPUNIT', 'QFHH', 'QSERV', 'PERCAP', 'QNOAUTO', 'QRENTER', 'QPOVTY', 'MDGRENT', 'QFAM', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'QSERV', 'QFHH', 'PERCAP', 'QNOAUTO', 'QPOVTY', 'MDGRENT', 'QRENTER', 'QFAM', 'QRICH', 'MDHSEVAL', 'QAGEDEP', 'QSSBEN', 'MEDAGE', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
